--- a/data/tehilim-data/46.xlsx
+++ b/data/tehilim-data/46.xlsx
@@ -25,7 +25,7 @@
     <t>לַמְנַצֵּחַ</t>
   </si>
   <si>
-    <t>Начальнику хора</t>
+    <t>Руководителю хора</t>
   </si>
   <si>
     <t>לִבְנֵי</t>
@@ -37,13 +37,13 @@
     <t>קֹרַח</t>
   </si>
   <si>
-    <t>Кореевых</t>
+    <t>Кораха</t>
   </si>
   <si>
     <t>עַל־עֲלָמוֹת</t>
   </si>
   <si>
-    <t>на девятых</t>
+    <t>на Аламот</t>
   </si>
   <si>
     <t>שִׁיר</t>
@@ -94,13 +94,13 @@
     <t>נִמְצָא</t>
   </si>
   <si>
-    <t>найденная</t>
+    <t>доступный</t>
   </si>
   <si>
     <t>מְאֹד</t>
   </si>
   <si>
-    <t>весьма</t>
+    <t>очень</t>
   </si>
   <si>
     <t>ג</t>
